--- a/AML Bootcamp Outline.xlsx
+++ b/AML Bootcamp Outline.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joel\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Personal)\Solliance\azure-ml-data-science-400\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3CC215-085F-40EE-AB9B-444DBD74F45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7847CF9F-753D-4242-A40B-1091EE4EE571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{258773BF-91B1-4CBA-B87E-842318A451E2}"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="25633" windowHeight="13760" xr2:uid="{258773BF-91B1-4CBA-B87E-842318A451E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -141,9 +141,6 @@
     <t>AI in a Day lab or Machine Learning MCW</t>
   </si>
   <si>
-    <t>Small group activity. Need to create challenges for teams to talk through. Difficult in that it touches a lot of level 300-400 topics</t>
-  </si>
-  <si>
     <t>Need to create a new lab for this. Have nice pipeline templates from Microsoft. Take one and repurpose it to what we want to do.</t>
   </si>
   <si>
@@ -165,7 +162,10 @@
     <t>AI in a day lab 2 implements those best practices. Have full MLOps pipelines with Azure pipelines as well as GitHub actions. We can drive best practices for managing source code, etc. from it</t>
   </si>
   <si>
-    <t>AI in a day lab 2 as a starting point. Minor updates to UI and screenshots needed.</t>
+    <t>Small group activity. Need to create challenges for teams to talk through. Difficult in that it touches a lot of level 300-400 topics. Kevin would be a good person to work on this.</t>
+  </si>
+  <si>
+    <t>AI in a day lab 2 as a starting point. Minor updates to UI and screenshots needed. Kevin to work on this one.</t>
   </si>
 </sst>
 </file>
@@ -189,12 +189,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -209,13 +215,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F1F32A-A7CF-4DEB-B686-F91F9A2FD3D5}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -542,13 +550,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -643,17 +651,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A10" s="1">
+    <row r="10" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="4">
         <v>0.46875</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="4">
         <v>0.5</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -690,7 +698,7 @@
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.5">
@@ -705,12 +713,12 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A17" s="1">
@@ -745,18 +753,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A20" s="1">
+    <row r="20" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="4">
         <v>0.375</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="4">
         <v>10</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E20" t="s">
-        <v>36</v>
+      <c r="E20" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.5">
@@ -781,7 +789,7 @@
         <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.5">
@@ -806,7 +814,7 @@
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.5">
@@ -820,18 +828,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A26" s="1">
+    <row r="26" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="4">
         <v>0.47916666666666669</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="4">
         <v>0.5</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E26" t="s">
-        <v>39</v>
+      <c r="E26" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.5">
@@ -856,18 +864,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A29" s="1">
+    <row r="29" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="4">
         <v>0.58333333333333337</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="4">
         <v>0.625</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E29" t="s">
-        <v>40</v>
+      <c r="E29" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.5">
@@ -882,12 +890,12 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A33" s="1">
@@ -944,18 +952,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A38" s="1">
+    <row r="38" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="4">
         <v>0.39583333333333331</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="4">
         <v>0.42708333333333331</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E38" t="s">
-        <v>41</v>
+      <c r="E38" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.5">
@@ -991,7 +999,7 @@
         <v>29</v>
       </c>
       <c r="E41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.5">
@@ -1005,17 +1013,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A43" s="1">
+    <row r="43" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="4">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="4">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="5" t="s">
         <v>43</v>
       </c>
     </row>
